--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T10:45:41+00:00</t>
+    <t>2024-12-26T11:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T11:41:10+00:00</t>
+    <t>2024-12-27T22:28:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/calorie-intake-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/calorie-intake-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/nutrition-intake-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/nutrition-intake-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1951,17 +1951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1970,28 +1970,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.16015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.1328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3620,7 +3620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>195</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>206</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>222</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>262</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>397</v>
       </c>
@@ -9304,12 +9304,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP60">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-calorie-intake-observation.xlsx
+++ b/output/StructureDefinition-calorie-intake-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
